--- a/config/excel/Condition.xlsx
+++ b/config/excel/Condition.xlsx
@@ -65,7 +65,8 @@
 1: 只需达成一个条件</t>
   </si>
   <si>
-    <t>0: 队伍等级达到**级</t>
+    <t>0: 队伍等级达到**级
+1: vip等级达到**级</t>
   </si>
   <si>
     <t>此列由前4列自动生成，不用填写</t>
@@ -109,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -158,17 +159,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,26 +203,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,10 +228,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,7 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,67 +273,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,61 +341,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,91 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +654,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -677,47 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -726,170 +742,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,6 +924,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1290,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7"/>
@@ -1333,7 +1337,7 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -1348,7 +1352,7 @@
       <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1364,17 +1368,17 @@
       <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1388,18 +1392,18 @@
       <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="17" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="17" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1413,34 +1417,34 @@
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1450,16 +1454,16 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="9" t="s">
@@ -1471,18 +1475,18 @@
       <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="17" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="17" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1494,35 +1498,35 @@
       <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>-1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>-1</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>-1</v>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="19" t="str">
         <f>E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
         <v>0,-1,-1,-1</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <v>10</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="18" t="str">
+      <c r="N7" s="19" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
         <v>10,0,0,0</v>
       </c>
@@ -1535,35 +1539,35 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>-1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>-1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>-1</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="20" t="str">
         <f>E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
         <v>0,-1,-1,-1</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="13">
         <v>10</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="20" t="str">
         <f>J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8</f>
         <v>10,0,0,0</v>
       </c>

--- a/config/excel/Condition.xlsx
+++ b/config/excel/Condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZG\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C30DE-2596-487C-BED2-89752BFB3FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E1B28-55FE-464C-B94F-5CBB3A3DB3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="2" r:id="rId1"/>
@@ -411,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:N8" totalsRowShown="0">
-  <autoFilter ref="C1:N8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:N9" totalsRowShown="0">
+  <autoFilter ref="C1:N9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="限制条件id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="条件类型"/>
@@ -693,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
         <v>-1</v>
@@ -913,7 +913,7 @@
       </c>
       <c r="I7" s="18" t="str">
         <f>E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
-        <v>0,-1,-1,-1</v>
+        <v>1,-1,-1,-1</v>
       </c>
       <c r="J7" s="12">
         <v>10</v>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="12">
         <v>-1</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="I8" s="19" t="str">
         <f>E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
-        <v>0,-1,-1,-1</v>
+        <v>1,-1,-1,-1</v>
       </c>
       <c r="J8" s="12">
         <v>10</v>
@@ -970,14 +970,55 @@
       </c>
       <c r="N8" s="19" t="str">
         <f>J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8</f>
+        <v>10,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f>E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
+        <v>1,-1,-1,-1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>10</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19" t="str">
+        <f>J9&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9</f>
         <v>10,0,0,0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/Condition.xlsx
+++ b/config/excel/Condition.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZG\EastEden\excel\trunk\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E1B28-55FE-464C-B94F-5CBB3A3DB3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="32040" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -71,6 +65,16 @@
 1: 只需达成一个条件</t>
   </si>
   <si>
+    <t>0:队伍等级达到**级
+1:击杀所有敌方单位
+2:己方单位全部死亡
+3:己方单位死亡人数小于*
+4:成功打断*次敌方技能
+5:己方单位成功使用*次奥义技能
+6:通关时间小于*秒
+7:优先击杀id为*的敌方单位</t>
+  </si>
+  <si>
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
@@ -105,19 +109,19 @@
   </si>
   <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>0:示例-队伍等级达到**级
-1:敌方单位全部死亡
-2:己方单位全部死亡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,23 +134,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -157,21 +165,157 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +342,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
@@ -208,8 +352,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -305,7 +635,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -327,9 +657,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -366,16 +938,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,52 +959,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:N9" totalsRowShown="0">
-  <autoFilter ref="C1:N9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:N9" totalsRowShown="0">
+  <autoFilter ref="C1:N9"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="限制条件id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="条件类型"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁子条件类型1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="解锁子条件类型2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="解锁子条件类型3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="解锁子条件类型4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="解锁子条件类型">
-      <calculatedColumnFormula>E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="解锁子条件数值1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="解锁子条件数值2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="解锁子条件数值3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="解锁子条件数值4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="解锁子条件数值">
-      <calculatedColumnFormula>J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="限制条件id"/>
+    <tableColumn id="2" name="条件类型"/>
+    <tableColumn id="3" name="解锁子条件类型1"/>
+    <tableColumn id="4" name="解锁子条件类型2"/>
+    <tableColumn id="5" name="解锁子条件类型3"/>
+    <tableColumn id="6" name="解锁子条件类型4"/>
+    <tableColumn id="7" name="解锁子条件类型"/>
+    <tableColumn id="8" name="解锁子条件数值1"/>
+    <tableColumn id="9" name="解锁子条件数值2"/>
+    <tableColumn id="10" name="解锁子条件数值3"/>
+    <tableColumn id="11" name="解锁子条件数值4"/>
+    <tableColumn id="12" name="解锁子条件数值"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,25 +1299,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7857142857143" style="1" customWidth="1"/>
     <col min="6" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.25" style="1" customWidth="1"/>
     <col min="10" max="13" width="15.125" style="1" customWidth="1"/>
@@ -738,7 +1350,7 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -753,11 +1365,11 @@
       <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="42.75">
+    <row r="2" ht="137" spans="1:14">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -766,132 +1378,132 @@
       <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
-        <v>16</v>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="2:14">
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="17" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="18" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="2:14">
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="2:14">
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="2:14">
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="17" t="s">
-        <v>27</v>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" ht="16.8" spans="2:14">
       <c r="B7" s="9"/>
       <c r="C7" s="7">
         <v>1</v>
@@ -899,40 +1511,40 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>-1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>-1</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>-1</v>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="19" t="str">
         <f>E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
         <v>1,-1,-1,-1</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <v>10</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="18" t="str">
+      <c r="N7" s="19" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
         <v>10,0,0,0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="2:14">
       <c r="B8" s="9"/>
       <c r="C8" s="7">
         <v>2</v>
@@ -940,85 +1552,85 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>-1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>-1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>-1</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="20" t="str">
         <f>E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
         <v>1,-1,-1,-1</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="13">
         <v>10</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="20" t="str">
         <f>J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8</f>
         <v>10,0,0,0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="3:14">
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>-1</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>-1</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>-1</v>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
         <v>1,-1,-1,-1</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="13">
         <v>10</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <v>0</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <v>0</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="19" t="str">
+      <c r="N9" s="20" t="str">
         <f>J9&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9</f>
         <v>10,0,0,0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/Condition.xlsx
+++ b/config/excel/Condition.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71FC2A5-6448-4F12-85A1-CB1010725D6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="32040" windowHeight="17020"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -114,14 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,6 +142,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,12 +151,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -164,158 +168,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +202,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
@@ -352,194 +212,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -635,7 +309,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -657,251 +331,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -966,82 +398,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:N9" totalsRowShown="0">
-  <autoFilter ref="C1:N9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:N9" totalsRowShown="0">
+  <autoFilter ref="C1:N9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="限制条件id"/>
-    <tableColumn id="2" name="条件类型"/>
-    <tableColumn id="3" name="解锁子条件类型1"/>
-    <tableColumn id="4" name="解锁子条件类型2"/>
-    <tableColumn id="5" name="解锁子条件类型3"/>
-    <tableColumn id="6" name="解锁子条件类型4"/>
-    <tableColumn id="7" name="解锁子条件类型"/>
-    <tableColumn id="8" name="解锁子条件数值1"/>
-    <tableColumn id="9" name="解锁子条件数值2"/>
-    <tableColumn id="10" name="解锁子条件数值3"/>
-    <tableColumn id="11" name="解锁子条件数值4"/>
-    <tableColumn id="12" name="解锁子条件数值"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="限制条件id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="条件类型"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁子条件类型1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="解锁子条件类型2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="解锁子条件类型3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="解锁子条件类型4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="解锁子条件类型">
+      <calculatedColumnFormula>E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="解锁子条件数值1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="解锁子条件数值2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="解锁子条件数值3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="解锁子条件数值4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="解锁子条件数值">
+      <calculatedColumnFormula>J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1299,25 +691,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
     <col min="6" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.25" style="1" customWidth="1"/>
     <col min="10" max="13" width="15.125" style="1" customWidth="1"/>
@@ -1369,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="137" spans="1:14">
+    <row r="2" spans="1:14" ht="142.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -1395,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="1:14">
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1420,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="1:14">
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:14">
       <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +870,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:14">
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="2:14">
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
       <c r="C7" s="7">
         <v>1</v>
@@ -1528,7 +920,7 @@
         <v>1,-1,-1,-1</v>
       </c>
       <c r="J7" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" s="13">
         <v>0</v>
@@ -1541,10 +933,10 @@
       </c>
       <c r="N7" s="19" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
-        <v>10,0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:14">
       <c r="B8" s="9"/>
       <c r="C8" s="7">
         <v>2</v>
@@ -1553,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="13">
         <v>-1</v>
@@ -1566,10 +958,10 @@
       </c>
       <c r="I8" s="20" t="str">
         <f>E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
-        <v>1,-1,-1,-1</v>
+        <v>2,-1,-1,-1</v>
       </c>
       <c r="J8" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8" s="13">
         <v>0</v>
@@ -1582,10 +974,10 @@
       </c>
       <c r="N8" s="20" t="str">
         <f>J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8</f>
-        <v>10,0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="1:14">
       <c r="C9" s="7">
         <v>3</v>
       </c>
@@ -1609,7 +1001,7 @@
         <v>1,-1,-1,-1</v>
       </c>
       <c r="J9" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9" s="13">
         <v>0</v>
@@ -1622,13 +1014,13 @@
       </c>
       <c r="N9" s="20" t="str">
         <f>J9&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9</f>
-        <v>10,0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
